--- a/files/moniter_list.xlsx
+++ b/files/moniter_list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>fund_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>000538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,40 +415,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -453,50 +464,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>

--- a/files/moniter_list.xlsx
+++ b/files/moniter_list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>fund_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>600369</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,105 @@
   </si>
   <si>
     <t>equity_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万宏源</t>
+    <rPh sb="2" eb="3">
+      <t>hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南证券</t>
+    <rPh sb="0" eb="1">
+      <t>xi nan zheng quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <rPh sb="0" eb="1">
+      <t>min sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <rPh sb="0" eb="1">
+      <t>pu fa yin hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <rPh sb="0" eb="1">
+      <t>ge li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南白药</t>
+    <rPh sb="0" eb="1">
+      <t>yun nan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇通客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰控股</t>
+    <rPh sb="0" eb="1">
+      <t>shun feng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证证券保险指数A</t>
+    <rPh sb="0" eb="1">
+      <t>tian hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +513,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -439,6 +534,9 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -464,10 +562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,42 +575,79 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+      <c r="A8">
+        <v>600066</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/files/moniter_list.xlsx
+++ b/files/moniter_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloga/Dropbox/Python/cloga.github.io/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weidian/Dropbox/Python/cloga.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fund_list" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>fund_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,93 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zhi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国国航</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河定投宝腾讯济安指数</t>
+    <rPh sb="0" eb="1">
+      <t>yin he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding tou bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>teng xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证银行指数A</t>
+    <rPh sb="0" eb="1">
+      <t>tian hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证全指房地产指数A</t>
+    <rPh sb="0" eb="1">
+      <t>tian hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang di chan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达银行指数分级</t>
+    <rPh sb="0" eb="1">
+      <t>yi fang da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,6 +617,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -543,15 +633,24 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -562,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,6 +749,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/moniter_list.xlsx
+++ b/files/moniter_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weidian/Dropbox/Python/cloga.github.io/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloga/Dropbox/Python/cloga.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fund_list" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>fund_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>001552</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001556</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得利斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天弘中证证券保险指数A</t>
     <rPh sb="0" eb="1">
       <t>tian hong</t>
@@ -189,20 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>601111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国国航</t>
-    <rPh sb="0" eb="1">
-      <t>zhong guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guo hang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银河定投宝腾讯济安指数</t>
     <rPh sb="0" eb="1">
       <t>yin he</t>
@@ -219,60 +185,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天弘中证银行指数A</t>
-    <rPh sb="0" eb="1">
-      <t>tian hong</t>
+    <t>110037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达纯债债券A</t>
+    <rPh sb="0" eb="1">
+      <t>yi fang da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chun zhai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhai q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒指数分级</t>
+    <rPh sb="0" eb="1">
+      <t>zhao shang</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zheng</t>
+      <t>zhong zheng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>yin hang</t>
+      <t>bai jiu</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>zhi shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘中证全指房地产指数A</t>
-    <rPh sb="0" eb="1">
-      <t>tian hong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong zheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>quan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fang di chan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhi shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达银行指数分级</t>
-    <rPh sb="0" eb="1">
-      <t>yi fang da</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yin hang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="8" eb="9">
       <t>fen ji</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600066</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,32 +579,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -663,99 +611,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>600066</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/files/moniter_list.xlsx
+++ b/files/moniter_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloga/Dropbox/Python/cloga.github.io/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weidian/Dropbox/Python/cloga.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fund_list" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>fund_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,20 @@
   </si>
   <si>
     <t>600066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证银行指数A</t>
+  </si>
+  <si>
+    <t>天弘中证全指房地产指数A</t>
+  </si>
+  <si>
+    <t>001594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001556</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +260,14 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,9 +292,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -550,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +623,20 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -611,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
